--- a/employee1/test_add_taskInProject/test_data.xlsx
+++ b/employee1/test_add_taskInProject/test_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\automateTestTeam0\Employee\test_login\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automate Test\Test_PMS\automateTestTeam0\Employee\test_delete_taskInProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8518FC8-9FB9-45EE-B38C-AB8DED17A5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC959DD7-CF12-44B5-9585-23BCB0EC809B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2850" yWindow="1350" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="1" r:id="rId1"/>
@@ -449,18 +449,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="101.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.90625" customWidth="1"/>
+    <col min="2" max="2" width="32.36328125" customWidth="1"/>
+    <col min="3" max="3" width="101.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -482,7 +482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>3</v>
@@ -491,7 +491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -499,7 +499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -510,7 +510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -521,7 +521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -532,7 +532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -557,18 +557,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850FD9B6-EE38-47DE-894F-A0E7C7A821D7}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="101.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.90625" customWidth="1"/>
+    <col min="2" max="2" width="32.36328125" customWidth="1"/>
+    <col min="3" max="3" width="101.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -590,7 +590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="5">
         <v>1234</v>
@@ -599,7 +599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -608,7 +608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -617,7 +617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -628,7 +628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -639,7 +639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -651,6 +651,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1" xr:uid="{C9F0AB97-6F91-4741-9A44-14D6FA47E239}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{5F6C672A-9D64-49D2-A6C5-F1DCD0E73B9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -664,14 +665,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="101.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.90625" customWidth="1"/>
+    <col min="2" max="2" width="32.36328125" customWidth="1"/>
+    <col min="3" max="3" width="101.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,25 +683,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
     </row>
   </sheetData>
